--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Robotic Enterprise Framework Westwing Template\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makroexcel\Documents\UiPath\Q13_ALL_SCM_ContainerBooking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E9AEDE-DC59-4E38-9D86-41877E8971DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24AA32-E086-41F5-89CC-3B79592FDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>PegasusLogsName</t>
   </si>
   <si>
-    <t>XXX</t>
-  </si>
-  <si>
     <t>Action parameter name for pegasus api logs</t>
   </si>
   <si>
@@ -231,12 +228,6 @@
     <t>Process Settings</t>
   </si>
   <si>
-    <t>ProcessXXXQueue</t>
-  </si>
-  <si>
-    <t>XXXFramework</t>
-  </si>
-  <si>
     <t>Shared</t>
   </si>
   <si>
@@ -283,6 +274,15 @@
   </si>
   <si>
     <t>Hello folks&lt;br&gt;&lt;br&gt;The job has been marked as faulted. Check the details below.&lt;br&gt;Take care!&lt;br&gt;&lt;br&gt;Details:&lt;br&gt;Process Name: {0}&lt;br&gt;Process Code: {1}&lt;br&gt;Faulted Job Reason: {2}&lt;br&gt;&lt;br&gt;&lt;br&gt;Best&lt;br&gt;&lt;i&gt;Westie&lt;br&gt;RPA Bot&lt;/i&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>AllScmContainerBooking</t>
+  </si>
+  <si>
+    <t>Q13_ALL_SCM_ContainerBooking</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>18</v>
@@ -758,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>28</v>
@@ -769,8 +769,8 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
+      <c r="B5" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -1994,7 +1994,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>43</v>
@@ -2005,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>45</v>
@@ -2021,21 +2021,21 @@
         <v>46</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2045,39 +2045,39 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="11"/>
     </row>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" s="11"/>
     </row>
@@ -2102,24 +2102,24 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60">
       <c r="A33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2129,24 +2129,24 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="60">
       <c r="A36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2156,24 +2156,24 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="60">
       <c r="A39" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2183,13 +2183,13 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2199,7 +2199,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makroexcel\Documents\UiPath\Q13_ALL_SCM_ContainerBooking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24AA32-E086-41F5-89CC-3B79592FDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77566686-087B-49C8-AFE3-10AF5F8ADEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>Q13_ALL_SCM_ContainerBooking</t>
+  </si>
+  <si>
+    <t>PacklistDirRootPath</t>
+  </si>
+  <si>
+    <t>S:\11_SOP_Customs\12_Seafreight\07_Transporeon booking\02_Packlists</t>
+  </si>
+  <si>
+    <t>PacklistDirRootPathLive</t>
+  </si>
+  <si>
+    <t>C:\Westie\Transporeon\07_Transporeon booking\02_Packlists</t>
   </si>
 </sst>
 </file>
@@ -696,7 +708,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -776,8 +788,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
